--- a/data/unchecked/manual_collect/china/ningxia/ningxiaCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/ningxia/ningxiaCaseStatistics_20200214.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐荣安\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7BBCC1-7888-40EA-AADB-C8F2FAB42F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1C30A-E801-4561-B58A-22F789FAAF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10770,8 +10770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5" customHeight="1"/>
@@ -10940,10 +10940,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D2" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
@@ -10982,7 +10982,9 @@
         <v>3298</v>
       </c>
       <c r="W2" s="13"/>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA2" s="12" t="s">
         <v>46</v>
       </c>
@@ -11005,10 +11007,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D3" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>41</v>
@@ -11047,7 +11049,9 @@
         <v>3297</v>
       </c>
       <c r="W3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Z3" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA3" s="12" t="s">
         <v>46</v>
       </c>
@@ -11070,10 +11074,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D4" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>41</v>
@@ -11112,7 +11116,9 @@
         <v>3297</v>
       </c>
       <c r="W4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="Z4" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA4" s="12" t="s">
         <v>46</v>
       </c>
@@ -11135,10 +11141,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D5" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>41</v>
@@ -11171,7 +11177,9 @@
         <v>3297</v>
       </c>
       <c r="W5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="Z5" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA5" s="12" t="s">
         <v>46</v>
       </c>
@@ -11192,10 +11200,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D6" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
@@ -11233,7 +11241,9 @@
         <v>3297</v>
       </c>
       <c r="W6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="Z6" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA6" s="12" t="s">
         <v>46</v>
       </c>
@@ -11254,10 +11264,10 @@
         <v>53</v>
       </c>
       <c r="C7" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D7" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>41</v>
@@ -11294,7 +11304,9 @@
         <v>3297</v>
       </c>
       <c r="W7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="Z7" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA7" s="12" t="s">
         <v>46</v>
       </c>
@@ -11315,10 +11327,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D8" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>41</v>
@@ -11356,7 +11368,9 @@
         <v>3297</v>
       </c>
       <c r="W8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="Z8" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA8" s="12" t="s">
         <v>46</v>
       </c>
@@ -11377,10 +11391,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D9" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>41</v>
@@ -11418,7 +11432,9 @@
         <v>3297</v>
       </c>
       <c r="W9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="Z9" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA9" s="12" t="s">
         <v>46</v>
       </c>
@@ -11439,10 +11455,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D10" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>41</v>
@@ -11482,7 +11498,9 @@
         <v>3297</v>
       </c>
       <c r="W10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="Z10" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA10" s="12" t="s">
         <v>46</v>
       </c>
@@ -11503,10 +11521,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D11" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>41</v>
@@ -11546,7 +11564,9 @@
         <v>3297</v>
       </c>
       <c r="W11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="Z11" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA11" s="12" t="s">
         <v>46</v>
       </c>
@@ -11567,10 +11587,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D12" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>41</v>
@@ -11607,7 +11627,9 @@
         <v>3298</v>
       </c>
       <c r="W12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="Z12" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA12" s="12" t="s">
         <v>46</v>
       </c>
@@ -11628,10 +11650,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D13" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>41</v>
@@ -11669,7 +11691,9 @@
         <v>3298</v>
       </c>
       <c r="W13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="Z13" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA13" s="12" t="s">
         <v>46</v>
       </c>
@@ -11690,10 +11714,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D14" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
@@ -11731,7 +11755,9 @@
         <v>3298</v>
       </c>
       <c r="W14" s="13"/>
-      <c r="Z14" s="13"/>
+      <c r="Z14" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA14" s="12" t="s">
         <v>46</v>
       </c>
@@ -11752,10 +11778,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D15" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>41</v>
@@ -11790,7 +11816,9 @@
         <v>3298</v>
       </c>
       <c r="W15" s="13"/>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA15" s="12" t="s">
         <v>46</v>
       </c>
@@ -11811,10 +11839,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D16" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>41</v>
@@ -11852,7 +11880,9 @@
         <v>3298</v>
       </c>
       <c r="W16" s="13"/>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA16" s="12" t="s">
         <v>46</v>
       </c>
@@ -11873,10 +11903,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D17" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>41</v>
@@ -11914,7 +11944,9 @@
         <v>3298</v>
       </c>
       <c r="W17" s="13"/>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA17" s="12" t="s">
         <v>46</v>
       </c>
@@ -11935,10 +11967,10 @@
         <v>53</v>
       </c>
       <c r="C18" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D18" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -11973,7 +12005,9 @@
         <v>3298</v>
       </c>
       <c r="W18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA18" s="12" t="s">
         <v>46</v>
       </c>
@@ -11994,10 +12028,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D19" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -12032,7 +12066,9 @@
         <v>3298</v>
       </c>
       <c r="W19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA19" s="12" t="s">
         <v>46</v>
       </c>
@@ -12053,10 +12089,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D20" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>41</v>
@@ -12094,7 +12130,9 @@
         <v>3298</v>
       </c>
       <c r="W20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="Z20" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA20" s="12" t="s">
         <v>46</v>
       </c>
@@ -12115,10 +12153,10 @@
         <v>53</v>
       </c>
       <c r="C21" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D21" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>41</v>
@@ -12153,7 +12191,9 @@
         <v>3298</v>
       </c>
       <c r="W21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Z21" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA21" s="12" t="s">
         <v>46</v>
       </c>
@@ -12174,10 +12214,10 @@
         <v>53</v>
       </c>
       <c r="C22" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D22" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>41</v>
@@ -12214,7 +12254,9 @@
         <v>3298</v>
       </c>
       <c r="W22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="Z22" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA22" s="12" t="s">
         <v>46</v>
       </c>
@@ -12235,10 +12277,10 @@
         <v>69</v>
       </c>
       <c r="C23" s="17">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="D23" s="17">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>41</v>
@@ -12278,7 +12320,9 @@
         <v>3298</v>
       </c>
       <c r="W23" s="13"/>
-      <c r="Z23" s="13"/>
+      <c r="Z23" s="13">
+        <v>43876.378472222219</v>
+      </c>
       <c r="AA23" s="12" t="s">
         <v>46</v>
       </c>
